--- a/data/cluster_animal.xlsx
+++ b/data/cluster_animal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/Documents/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{547CEDF4-6890-1641-B289-0B5AA00DA79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A2677F-BBD8-2349-AEEF-2D4C3FCD0DA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3920" yWindow="3900" windowWidth="27380" windowHeight="14860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -520,7 +520,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
